--- a/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
+++ b/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3251,4 +3252,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>69.77</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6158</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5839</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4764</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4704</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3715</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2565</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>71.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000867</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝品质生活股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006603</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实互融精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.73</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
+++ b/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4030,4 +4031,478 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2462</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0749</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
+++ b/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4505,4 +4506,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>32</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
+++ b/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4514,7 +4515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4525,17 +4526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4545,14 +4566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.5</v>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5008</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -4561,14 +4604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.75</v>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -4577,14 +4642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>32</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.619999999999999</v>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7083</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -4593,13 +4680,911 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6855</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5126</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3966</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3724</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008353</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2913</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2614</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1992</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1955</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>67.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1287</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008354</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰达宏利消费行业量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>39</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>11.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
+++ b/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5483,7 +5484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5494,17 +5495,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5514,14 +5535,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.61</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -5530,14 +5573,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>11</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.5</v>
+          <t>519126</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浦银安盛新经济结构灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3756</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -5546,14 +5611,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.75</v>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5562,14 +5649,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>32</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.619999999999999</v>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3045</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -5578,13 +5687,2257 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0415</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0374</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010659</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9994</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8850</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002621</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7176</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>20.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6219</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5750</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5585</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009368</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4710</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4701</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3983</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003516</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰融安多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3768</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3741</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006314</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中融策略优选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010795</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2997</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2757</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2753</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000408</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002697</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011843</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160805</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛同智优势成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2058</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1947</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009369</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>浦银安盛价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.63</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1790</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.43</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1636</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012556</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛景气优选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>47.88</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1245</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>020023</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰事件驱动策略混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003145</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融竞争优势股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0692</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006315</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中融策略优选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011383</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富安达医药创新混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010660</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.59</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001861</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富安达健康人生灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.10</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010796</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>民生加银价值发现一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003238</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新华外延增长主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009706</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>民生加银城镇化混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>78.80</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>350007</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>天治趋势精选混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>40.93</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011844</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银内核驱动混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.72</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>350008</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天治新消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>42.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>60</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>32</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>39</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>11.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
+++ b/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7820,7 +7821,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7831,17 +7832,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7851,14 +7872,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>60</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.08</v>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5291</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -7867,14 +7910,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.61</v>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8252</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -7883,14 +7948,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.5</v>
+          <t>010709</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8134</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7899,14 +7986,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.75</v>
+          <t>012173</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7731</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -7915,14 +8024,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>32</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.619999999999999</v>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7086</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -7931,13 +8062,753 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6950</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007835</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰鑫睿混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4523</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010710</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信医药健康主题股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4211</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012174</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰兴泽优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>200006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城消费增值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3093</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2810</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.25</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1197</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0618</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013891</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰睿毅三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>55.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>39</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>11.38</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
+++ b/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>9.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D3" t="n">
-        <v>21.08</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D4" t="n">
-        <v>7.61</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>8.619999999999999</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>39</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>11.38</v>
       </c>
     </row>
@@ -600,6 +617,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001179</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>德邦大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1453,7 +1564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3789,7 +3900,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4757,7 +4868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5231,7 +5342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6009,7 +6120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7281,7 +7392,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
+++ b/数据整理/stocks/A股/上证主板/603520-司太立.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>9.1</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D4" t="n">
-        <v>21.08</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>7.61</v>
+        <v>21.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>8.619999999999999</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1566 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.619999999999999</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>39</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>11.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001480</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通成长优选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3045</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>720001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通价值动量混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9408</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信盛利精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8638</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7031</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6296</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009062</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5979</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001558</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5602</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008983</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4807</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4769</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4333</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3925</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3852</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>162204</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利行业精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3848</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162201</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3669</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001559</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2263</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162208</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利首选企业股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2194</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501046</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通多策略福鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010135</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006502</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1422</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1280</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010054</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005535</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>泰信竞争优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009063</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通智慧成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006503</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>财通集成电路产业股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008984</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>财通科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005903</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰达宏利绩优增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001967</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华宝转型升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010136</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>泰达宏利高研发创新6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010055</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2170,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0955</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河康乐股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>016018</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河康乐股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>015067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏永康添福混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -710,7 +2507,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1564,7 +3361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3900,7 +5697,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4868,7 +6665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5342,7 +7139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6120,7 +7917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7390,1540 +9187,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001480</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>财通成长优选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.3045</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>720001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>财通价值动量混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.23</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9408</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>310308</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>申万菱信盛利精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>73.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8789</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001170</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>泰达宏利复兴伟业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>11.72</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8638</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002264</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏乐享健康灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.20</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.29</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7031</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>501085</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通科创主题 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.79</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>83.45</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6296</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009062</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5979</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001558</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>天弘医疗健康混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>14.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.5602</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008983</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>财通科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>9.79</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.4807</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>162207</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰达宏利效率优选混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>10.55</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>69.70</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4769</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001766</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>上投摩根医疗健康股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>14.30</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>83.02</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.03</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4333</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>240020</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华宝医药生物优选混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.28</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3925</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009141</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>泰达宏利价值长青混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3852</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>162204</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰达宏利行业精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>9.97</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3848</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>162201</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泰达宏利成长混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.04</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3669</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001559</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>天弘医疗健康混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.70</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.01</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2263</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>162208</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>泰达宏利首选企业股票</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2194</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004041</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1712</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>501046</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>财通多策略福鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>91.41</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1674</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004683</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>建信高端医疗股票</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>3.14</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.30</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1545</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>010135</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>泰达宏利高研发创新6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>88.11</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1424</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>006502</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.1422</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>000866</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>华宝高端制造股票</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.10</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.1280</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>004040</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>金鹰医疗健康产业股票A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.1210</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>010054</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>万家健康产业混合A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0800</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>001303</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>21.45</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0712</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>008618</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0676</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>005535</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>泰信竞争优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.46</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.00</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0608</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009063</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>财通智慧成长混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>88.67</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0558</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>501032</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>财通福盛多策略混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>91.07</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.31</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0437</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>006503</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>财通集成电路产业股票C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>95.10</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0315</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>008984</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>财通科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.97</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0300</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>008619</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>永赢医药健康股票C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.36</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>85.16</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>5.20</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0187</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005903</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>泰达宏利绩优增长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.58</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0173</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001967</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华宝转型升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>89.24</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0156</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>009142</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>泰达宏利价值长青混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.25</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.99</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0096</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>010136</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>泰达宏利高研发创新6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>88.11</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>010055</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>万家健康产业混合C</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>40.72</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>2.02</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>002323</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>银华稳利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>21.45</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>